--- a/07_Tag 07/PA-Arbeitszeiten_0.7_Cvetkovic_David.xlsx
+++ b/07_Tag 07/PA-Arbeitszeiten_0.7_Cvetkovic_David.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fussball-Webapplikation\07_Tag 07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7F45162-7542-4E26-A09E-C89E3799A4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F9C529-DF5F-4980-B4AD-549EF93FF34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{60C6E820-592A-40C4-8B41-F60F494C4260}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,7 +625,9 @@
       <c r="C11" s="6">
         <v>0.33402777777777781</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="6">
+        <v>0.48125000000000001</v>
+      </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>

--- a/07_Tag 07/PA-Arbeitszeiten_0.7_Cvetkovic_David.xlsx
+++ b/07_Tag 07/PA-Arbeitszeiten_0.7_Cvetkovic_David.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fussball-Webapplikation\07_Tag 07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F9C529-DF5F-4980-B4AD-549EF93FF34A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675C8768-FDBD-456C-9FC1-ADD7BA744570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{60C6E820-592A-40C4-8B41-F60F494C4260}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,7 +628,9 @@
       <c r="D11" s="6">
         <v>0.48125000000000001</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="6">
+        <v>0.50416666666666665</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>

--- a/07_Tag 07/PA-Arbeitszeiten_0.7_Cvetkovic_David.xlsx
+++ b/07_Tag 07/PA-Arbeitszeiten_0.7_Cvetkovic_David.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Fussball-Webapplikation\07_Tag 07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675C8768-FDBD-456C-9FC1-ADD7BA744570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2DB81B-0C52-43B1-87C8-A952D6EB4956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{60C6E820-592A-40C4-8B41-F60F494C4260}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,8 +631,12 @@
       <c r="E11" s="6">
         <v>0.50416666666666665</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="F11" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.33055555555555555</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
